--- a/zajęcia3_zadanie4.xlsx
+++ b/zajęcia3_zadanie4.xlsx
@@ -33,9 +33,6 @@
     <t>średnia</t>
   </si>
   <si>
-    <t>xi</t>
-  </si>
-  <si>
     <t>ni</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>odch.stand</t>
   </si>
   <si>
-    <t>Xi-średnia)^2*ni</t>
-  </si>
-  <si>
     <t>u</t>
   </si>
   <si>
@@ -61,6 +55,12 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>(Xi-średnia)^2*ni</t>
+  </si>
+  <si>
+    <t>Xi</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
   <dimension ref="B3:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,14 +670,15 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="12" max="12" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -688,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -841,7 +842,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="8">
         <f>SUM(E5:F11)/999</f>
@@ -850,7 +851,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="8">
         <f>SQRT(C17)</f>
@@ -859,7 +860,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="8">
         <f>_xlfn.NORM.S.INV(1-C14/2)</f>
@@ -868,25 +869,25 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" s="8">
-        <f>C16-C19*(C17/SQRT(C15))</f>
-        <v>0.6671281520500012</v>
+        <f>C16-C19*(C18/SQRT(C15))</f>
+        <v>0.65405064485536624</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="5">
-        <f>C16+C19*(C17/SQRT(C15))</f>
-        <v>0.67847184794999893</v>
+        <f>C16+C19*(C18/SQRT(C15))</f>
+        <v>0.69154935514463389</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
